--- a/教育訓練單位總表.xlsx
+++ b/教育訓練單位總表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsiaoyung\Desktop\Major project\taiwan-training-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DA9330-D926-4827-82DA-0F16177DE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9CA301-DF1B-40E0-BA54-5B065B6765F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2130" windowWidth="24045" windowHeight="12195"/>
+    <workbookView xWindow="3405" yWindow="1380" windowWidth="30375" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教育訓練單位總表" sheetId="1" r:id="rId1"/>
@@ -1699,9 +1699,6 @@
     <t>24.992224174826504, 121.30086739688204</t>
   </si>
   <si>
-    <t>社團法人中華安全與健康推廣發展協會附設苗?職業訓?中心</t>
-  </si>
-  <si>
     <t>黃仲傑</t>
   </si>
   <si>
@@ -2135,12 +2132,16 @@
   </si>
   <si>
     <t>720219050002</t>
+  </si>
+  <si>
+    <t>社團法人中華安全與健康推廣發展協會附設苗栗職業訓訓中心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27">
     <font>
       <sz val="12"/>
@@ -2867,7 +2868,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="69">
-    <cellStyle name="%" xfId="66"/>
+    <cellStyle name="%" xfId="66" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2887,35 +2888,35 @@
     <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="60"/>
-    <cellStyle name="一般 11" xfId="63"/>
-    <cellStyle name="一般 12" xfId="42"/>
-    <cellStyle name="一般 2" xfId="43"/>
-    <cellStyle name="一般 2 2" xfId="53"/>
-    <cellStyle name="一般 2 2 2" xfId="61"/>
-    <cellStyle name="一般 2 3" xfId="67"/>
-    <cellStyle name="一般 3" xfId="44"/>
-    <cellStyle name="一般 3 2" xfId="46"/>
-    <cellStyle name="一般 3 2 2" xfId="48"/>
-    <cellStyle name="一般 3 2 2 2" xfId="54"/>
-    <cellStyle name="一般 3 2 3" xfId="55"/>
-    <cellStyle name="一般 3 2 4" xfId="62"/>
-    <cellStyle name="一般 3 3" xfId="47"/>
-    <cellStyle name="一般 3 4" xfId="65"/>
-    <cellStyle name="一般 4" xfId="45"/>
-    <cellStyle name="一般 4 2" xfId="68"/>
-    <cellStyle name="一般 5" xfId="50"/>
-    <cellStyle name="一般 5 2" xfId="51"/>
-    <cellStyle name="一般 5 3" xfId="64"/>
-    <cellStyle name="一般 6" xfId="52"/>
-    <cellStyle name="一般 6 2" xfId="56"/>
-    <cellStyle name="一般 7" xfId="49"/>
-    <cellStyle name="一般 8" xfId="57"/>
-    <cellStyle name="一般 9" xfId="58"/>
+    <cellStyle name="一般 10" xfId="60" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="一般 11" xfId="63" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="一般 12" xfId="42" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="一般 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="一般 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="一般 2 3" xfId="67" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="一般 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="一般 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="一般 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="一般 3 2 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="一般 3 2 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="一般 3 2 4" xfId="62" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="一般 3 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="一般 3 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="一般 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="一般 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="一般 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="一般 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="一般 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="一般 6" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="一般 6 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="一般 7" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="一般 8" xfId="57" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="一般 9" xfId="58" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="百分比 2" xfId="59"/>
+    <cellStyle name="百分比 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -3246,16 +3247,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3302,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="33">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3354,7 +3356,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3390,7 +3392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="33">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3442,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3486,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3530,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3574,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3618,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3662,7 +3664,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -3706,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3742,7 +3744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
@@ -3786,7 +3788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="33">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D13" t="s">
         <v>75</v>
@@ -3838,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -3882,7 +3884,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -3926,7 +3928,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -3970,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -4006,7 +4008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="33">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -4058,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -4102,7 +4104,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -4146,7 +4148,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -4190,7 +4192,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -4234,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D23" t="s">
         <v>75</v>
@@ -4278,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -4322,7 +4324,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -4366,7 +4368,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -4410,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -4454,7 +4456,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -4498,7 +4500,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -4542,7 +4544,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -4586,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -4630,7 +4632,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D32" t="s">
         <v>75</v>
@@ -4674,7 +4676,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -4718,7 +4720,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -4762,7 +4764,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -4806,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -4850,7 +4852,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -4894,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -4938,7 +4940,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -4982,7 +4984,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
@@ -5026,7 +5028,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -5070,7 +5072,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -5114,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -5158,7 +5160,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D44" t="s">
         <v>75</v>
@@ -5194,7 +5196,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="33">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -5238,7 +5240,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="33">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -5282,7 +5284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="33">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -5326,7 +5328,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="33">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -5370,7 +5372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="33">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -5414,7 +5416,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="33">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -5458,7 +5460,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="33">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -5502,7 +5504,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="33">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -5546,7 +5548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="33">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -5590,7 +5592,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="33">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -5634,7 +5636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="33">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5642,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D55" t="s">
         <v>75</v>
@@ -5686,7 +5688,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D56" t="s">
         <v>75</v>
@@ -5722,7 +5724,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="33">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D57" t="s">
         <v>75</v>
@@ -5766,7 +5768,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="33">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -5810,7 +5812,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="33">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -5854,7 +5856,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="33">
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D60" t="s">
         <v>75</v>
@@ -5898,7 +5900,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="33">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -5942,7 +5944,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="33">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -5986,7 +5988,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="33">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
@@ -6030,7 +6032,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="33">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D64" t="s">
         <v>75</v>
@@ -6074,7 +6076,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="33">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -6118,7 +6120,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="33">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -6162,7 +6164,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="33">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -6206,7 +6208,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="33">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -6250,7 +6252,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="33">
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
@@ -6294,7 +6296,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="33">
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
@@ -6338,7 +6340,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="33">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
@@ -6382,7 +6384,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="33">
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
@@ -6426,7 +6428,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="33">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -6470,7 +6472,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="33">
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D74" t="s">
         <v>75</v>
@@ -6514,7 +6516,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="33">
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
@@ -6558,7 +6560,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="33">
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -6610,7 +6612,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D77" t="s">
         <v>75</v>
@@ -6654,7 +6656,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -6690,7 +6692,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="33">
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -6734,7 +6736,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="33">
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -6778,7 +6780,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="33">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>14</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -6822,7 +6824,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="33">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
@@ -6866,7 +6868,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="33">
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -6910,7 +6912,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="33">
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>14</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -6962,7 +6964,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D85" t="s">
         <v>75</v>
@@ -6998,7 +7000,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="33">
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D86" t="s">
         <v>75</v>
@@ -7042,7 +7044,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="33">
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>14</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
@@ -7094,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D88" t="s">
         <v>75</v>
@@ -7138,7 +7140,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D89" t="s">
         <v>75</v>
@@ -7182,7 +7184,7 @@
         <v>552</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -7226,13 +7228,13 @@
         <v>14</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>559</v>
+        <v>704</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -7247,19 +7249,19 @@
         <v>77</v>
       </c>
       <c r="J91" t="s">
+        <v>559</v>
+      </c>
+      <c r="K91" t="s">
         <v>560</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>561</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>562</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>563</v>
-      </c>
-      <c r="N91" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7267,16 +7269,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -7291,19 +7293,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s">
+        <v>566</v>
+      </c>
+      <c r="K92" t="s">
         <v>567</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>568</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>569</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>570</v>
-      </c>
-      <c r="N92" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -7314,13 +7316,13 @@
         <v>552</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -7335,19 +7337,19 @@
         <v>58</v>
       </c>
       <c r="J93" t="s">
+        <v>572</v>
+      </c>
+      <c r="K93" t="s">
         <v>573</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>574</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>575</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>576</v>
-      </c>
-      <c r="N93" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -7358,13 +7360,13 @@
         <v>552</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -7379,19 +7381,19 @@
         <v>77</v>
       </c>
       <c r="J94" t="s">
+        <v>578</v>
+      </c>
+      <c r="K94" t="s">
         <v>579</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>580</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>581</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>582</v>
-      </c>
-      <c r="N94" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -7402,13 +7404,13 @@
         <v>552</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D95" t="s">
         <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -7423,19 +7425,19 @@
         <v>36</v>
       </c>
       <c r="J95" t="s">
+        <v>584</v>
+      </c>
+      <c r="K95" t="s">
         <v>585</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>586</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>587</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>588</v>
-      </c>
-      <c r="N95" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7446,13 +7448,13 @@
         <v>552</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D96" t="s">
         <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F96" t="s">
         <v>50</v>
@@ -7467,19 +7469,19 @@
         <v>58</v>
       </c>
       <c r="J96" t="s">
+        <v>590</v>
+      </c>
+      <c r="K96" t="s">
         <v>591</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>592</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>593</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>594</v>
-      </c>
-      <c r="N96" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -7490,13 +7492,13 @@
         <v>552</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D97" t="s">
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -7511,19 +7513,19 @@
         <v>58</v>
       </c>
       <c r="J97" t="s">
+        <v>596</v>
+      </c>
+      <c r="K97" t="s">
         <v>597</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>598</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>599</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>600</v>
-      </c>
-      <c r="N97" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -7534,13 +7536,13 @@
         <v>552</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D98" t="s">
         <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F98" t="s">
         <v>103</v>
@@ -7555,19 +7557,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s">
+        <v>602</v>
+      </c>
+      <c r="K98" t="s">
         <v>603</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>604</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>605</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>606</v>
-      </c>
-      <c r="N98" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/教育訓練單位總表.xlsx
+++ b/教育訓練單位總表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hsiaoyung\Desktop\Major project\taiwan-training-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9CA301-DF1B-40E0-BA54-5B065B6765F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42EADA2-AC2F-4C06-9FBF-505A28875B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1380" windowWidth="30375" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="960" windowWidth="30150" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教育訓練單位總表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="706">
   <si>
     <t>Column1</t>
   </si>
@@ -880,9 +880,6 @@
     <t>twd002@gmail.com</t>
   </si>
   <si>
-    <t>基隆市中山區中山二路35號10樓</t>
-  </si>
-  <si>
     <t>25.13798172836274, 121.74057454232747</t>
   </si>
   <si>
@@ -1303,838 +1300,847 @@
     <t>社團法人中華勞動學會附設新北職業訓練中心</t>
   </si>
   <si>
+    <t>新北市板橋區民族路260號3樓</t>
+  </si>
+  <si>
+    <t>25.007095285481434, 121.46948583246436</t>
+  </si>
+  <si>
+    <t>社團法人台灣勞動職業安全衛生協會附設雲林職業訓練中心</t>
+  </si>
+  <si>
+    <t>蔡書通</t>
+  </si>
+  <si>
+    <t>taiwan5890@yahoo.com</t>
+  </si>
+  <si>
+    <t>雲林縣林內鄉九芎村和平路72號</t>
+  </si>
+  <si>
+    <t>23.74761224611867, 120.60518798336531</t>
+  </si>
+  <si>
+    <t>社團法人宜蘭縣勞工教育協進會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府</t>
+  </si>
+  <si>
+    <t>莊盈慧</t>
+  </si>
+  <si>
+    <t>03-9605669</t>
+  </si>
+  <si>
+    <t>g69.g43@msa.hinet.net</t>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮中山路二段123號</t>
+  </si>
+  <si>
+    <t>24.67336156324799, 121.78284189687558</t>
+  </si>
+  <si>
+    <t>社團法人花蓮縣勞工安全衛生教育協進會附設花蓮縣職業訓練中心</t>
+  </si>
+  <si>
+    <t>張銘偉</t>
+  </si>
+  <si>
+    <t>03-8567997</t>
+  </si>
+  <si>
+    <t>ay73.ay73@hotmail.com</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市中央路三段659號</t>
+  </si>
+  <si>
+    <t>23.991430423142496, 121.59017495268093</t>
+  </si>
+  <si>
+    <t>社團法人高雄市勞資事務協進會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>訓練中心主任</t>
+  </si>
+  <si>
+    <t>卓水源</t>
+  </si>
+  <si>
+    <t>07-5372885</t>
+  </si>
+  <si>
+    <t>a0910665537@gmai.com</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區一心二路128號11樓之1</t>
+  </si>
+  <si>
+    <t>22.612246587649814, 120.3088857545074</t>
+  </si>
+  <si>
+    <t>社團法人高雄市職業安全第一協會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>方瑞邦</t>
+  </si>
+  <si>
+    <t>07-7138871</t>
+  </si>
+  <si>
+    <t>khhno1@gmail.com</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區瑞隆路472號2樓</t>
+  </si>
+  <si>
+    <t>22.605719070802603, 120.32935018334342</t>
+  </si>
+  <si>
+    <t>社團法人台灣安全衛生協會附設台中職業訓練中心</t>
+  </si>
+  <si>
+    <t>賴志青</t>
+  </si>
+  <si>
+    <t>04-24069066</t>
+  </si>
+  <si>
+    <t>tshtcvtc@gmail.com</t>
+  </si>
+  <si>
+    <t>台中市大里區大明路391號9樓</t>
+  </si>
+  <si>
+    <t>24.115148383408158, 120.67978485453649</t>
+  </si>
+  <si>
+    <t>社團法人台灣安全衛生協會附設苗栗職業訓練中心</t>
+  </si>
+  <si>
+    <t>行政管理處長</t>
+  </si>
+  <si>
+    <t>陳淑英</t>
+  </si>
+  <si>
+    <t>037-479808</t>
+  </si>
+  <si>
+    <t>mauzong.lin@msa.hinet.net</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮福德路1號</t>
+  </si>
+  <si>
+    <t>24.68315669782477, 120.88013545454821</t>
+  </si>
+  <si>
+    <t>台灣省安全衛生教育協會附設高雄職業訓練中心</t>
+  </si>
+  <si>
+    <t>張澧漢</t>
+  </si>
+  <si>
+    <t>07-2367666</t>
+  </si>
+  <si>
+    <t>esh.ksg@msa.hinet.net</t>
+  </si>
+  <si>
+    <t>高雄市新興區七賢一路251號17樓</t>
+  </si>
+  <si>
+    <t>22.63405841225203, 120.30948009683549</t>
+  </si>
+  <si>
+    <t>桃園市勞動安全衛生協會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>03-4950120</t>
+  </si>
+  <si>
+    <t>ufjl2240@yahoo.com.tw</t>
+  </si>
+  <si>
+    <t>桃園市中壢區環北路7號3樓</t>
+  </si>
+  <si>
+    <t>24.96611467786633, 121.2170385122263</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心(台北)</t>
+  </si>
+  <si>
+    <t>董事長</t>
+  </si>
+  <si>
+    <t>許勝雄</t>
+  </si>
+  <si>
+    <t>02-25555525</t>
+  </si>
+  <si>
+    <t>02985@cpc.tw</t>
+  </si>
+  <si>
+    <t>台北市大同區承德路二段81號B1</t>
+  </si>
+  <si>
+    <t>25.05622663818693, 121.51851371222807</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心附設中區服務處</t>
+  </si>
+  <si>
+    <t>04-23505038</t>
+  </si>
+  <si>
+    <t>02089@cpc.tw</t>
+  </si>
+  <si>
+    <t>台中市西屯區工業區38路189號</t>
+  </si>
+  <si>
+    <t>24.172904292185017, 120.58883185453773</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心附設台南服務處</t>
+  </si>
+  <si>
+    <t>協理</t>
+  </si>
+  <si>
+    <t>李沐恩</t>
+  </si>
+  <si>
+    <t>06-2134413</t>
+  </si>
+  <si>
+    <t>01529@cpc.tw</t>
+  </si>
+  <si>
+    <t>台南市中西區大埔街52號</t>
+  </si>
+  <si>
+    <t>22.98761843205301, 120.20684942382512</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心附設南雲服務處</t>
+  </si>
+  <si>
+    <t>經理</t>
+  </si>
+  <si>
+    <t>曾英富</t>
+  </si>
+  <si>
+    <t>05-5341379</t>
+  </si>
+  <si>
+    <t>02802@cpc.org.tw</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市雲林路二段225號11樓</t>
+  </si>
+  <si>
+    <t>23.703332229956107, 120.53177853918368</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心附設高雄服務處</t>
+  </si>
+  <si>
+    <t>07-3362918</t>
+  </si>
+  <si>
+    <t>01040@cpc.tw</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區成功一路232號15樓</t>
+  </si>
+  <si>
+    <t>22.617947471660614, 120.29659322567139</t>
+  </si>
+  <si>
+    <t>財團法人中國生產力中心桃園服務處</t>
+  </si>
+  <si>
+    <t>03-3385791</t>
+  </si>
+  <si>
+    <t>01110@cpc.org.tw</t>
+  </si>
+  <si>
+    <t>桃園市桃園區成功路二段7號4樓</t>
+  </si>
+  <si>
+    <t>24.993707584651087, 121.31430036804605</t>
+  </si>
+  <si>
+    <t>財團法人中華民國職業訓練研究發展中心</t>
+  </si>
+  <si>
+    <t>苗豐強</t>
+  </si>
+  <si>
+    <t>02-27075111</t>
+  </si>
+  <si>
+    <t>emily@training.org.tw</t>
+  </si>
+  <si>
+    <t>台北市大安區復興南路一段390號11樓</t>
+  </si>
+  <si>
+    <t>25.03388567590091, 121.5432716103745</t>
+  </si>
+  <si>
+    <t>財團法人中華航業人員訓練中心</t>
+  </si>
+  <si>
+    <t>李在方</t>
+  </si>
+  <si>
+    <t>02-24922118</t>
+  </si>
+  <si>
+    <t>ff934ddg908@yahoo.com.tw</t>
+  </si>
+  <si>
+    <t>新北市萬里區瑪鋉路15號</t>
+  </si>
+  <si>
+    <t>25.175600049225693, 121.68753523921373</t>
+  </si>
+  <si>
+    <t>財團法人金屬工業研究發展中心</t>
+  </si>
+  <si>
+    <t>林仁益</t>
+  </si>
+  <si>
+    <t>07-3513121-2443</t>
+  </si>
+  <si>
+    <t>davisi@mail.mirdc.org.tw</t>
+  </si>
+  <si>
+    <t>高雄市楠梓區高楠公路1001號</t>
+  </si>
+  <si>
+    <t>22.714254184850443, 120.3252446986901</t>
+  </si>
+  <si>
+    <t>高雄市起重機具協會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>職訓負責人</t>
+  </si>
+  <si>
+    <t>黃立村</t>
+  </si>
+  <si>
+    <t>07-8221405</t>
+  </si>
+  <si>
+    <t>kscrane@seed.net.tw</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區天后街70號4樓</t>
+  </si>
+  <si>
+    <t>22.571337634379585, 120.32108806799805</t>
+  </si>
+  <si>
+    <t>社團法人中華產業機械設備協會附設高雄職業訓練中心</t>
+  </si>
+  <si>
+    <t>孫榮宏</t>
+  </si>
+  <si>
+    <t>07-9769930</t>
+  </si>
+  <si>
+    <t>cimaf533@gmail.com</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區中山二路260號17樓A1</t>
+  </si>
+  <si>
+    <t>22.613451279557676, 120.30511386799891</t>
+  </si>
+  <si>
+    <t>依法組織之雇主團體</t>
+  </si>
+  <si>
+    <t>社團法人桃園市工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>賀健中</t>
+  </si>
+  <si>
+    <t>03-3379022</t>
+  </si>
+  <si>
+    <t>t223@tcia.org.tw</t>
+  </si>
+  <si>
+    <t>桃園市桃園區縣府路332號11樓</t>
+  </si>
+  <si>
+    <t>24.992224174826504, 121.30086739688204</t>
+  </si>
+  <si>
+    <t>黃仲傑</t>
+  </si>
+  <si>
+    <t>037-666600</t>
+  </si>
+  <si>
+    <t>anje037666600@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份市水源路231號</t>
+  </si>
+  <si>
+    <t>24.673809207598, 120.91466916803944</t>
+  </si>
+  <si>
+    <t>依法組織之勞工團體</t>
+  </si>
+  <si>
+    <t>雲林縣職業總工會附設麥寮職業訓練中心</t>
+  </si>
+  <si>
+    <t>張聰明</t>
+  </si>
+  <si>
+    <t>05-5529082</t>
+  </si>
+  <si>
+    <t>YL.ML.vtc@gmail.com</t>
+  </si>
+  <si>
+    <t>雲林縣麥寮鄉泰順路333巷3號</t>
+  </si>
+  <si>
+    <t>23.752171500559584, 120.25387418336531</t>
+  </si>
+  <si>
+    <t>新北市工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>游明智</t>
+  </si>
+  <si>
+    <t>02-29559077</t>
+  </si>
+  <si>
+    <t>book@ntcia.org.tw</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶路66號4樓</t>
+  </si>
+  <si>
+    <t>25.006788116693173, 121.46158669688242</t>
+  </si>
+  <si>
+    <t>嘉義市工業會附設職訓中心</t>
+  </si>
+  <si>
+    <t>古宏麟</t>
+  </si>
+  <si>
+    <t>05-2250601~2</t>
+  </si>
+  <si>
+    <t>miga.a0602@gmail.com</t>
+  </si>
+  <si>
+    <t>嘉義市東區興業東路316號7樓</t>
+  </si>
+  <si>
+    <t>23.469960145329313, 120.46111897906052</t>
+  </si>
+  <si>
+    <t>嘉義縣工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>鄭義勇</t>
+  </si>
+  <si>
+    <t>05-2784321</t>
+  </si>
+  <si>
+    <t>qywlin@gmail.com</t>
+  </si>
+  <si>
+    <t>義市東區民權路278號</t>
+  </si>
+  <si>
+    <t>23.482983301600527, 120.45185612568784</t>
+  </si>
+  <si>
+    <t>彰化縣工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>陳永興</t>
+  </si>
+  <si>
+    <t>04-7256655</t>
+  </si>
+  <si>
+    <t>002@mail-ch-industry.org.tw</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市民族路209號</t>
+  </si>
+  <si>
+    <t>24.07090626314975, 120.53859445453568</t>
+  </si>
+  <si>
+    <t>臺中市總工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>徐政宏</t>
+  </si>
+  <si>
+    <t>04-25262934</t>
+  </si>
+  <si>
+    <t>amy@thiu.org.tw</t>
+  </si>
+  <si>
+    <t>台中市豐原區東仁街138號6樓</t>
+  </si>
+  <si>
+    <t>24.257711357013637, 120.72627031895745</t>
+  </si>
+  <si>
+    <t>臺南市總工業會附設職業訓練中心</t>
+  </si>
+  <si>
+    <t>蔡明忠</t>
+  </si>
+  <si>
+    <t>06-3020099</t>
+  </si>
+  <si>
+    <t>tncia33@tncia.org.tw</t>
+  </si>
+  <si>
+    <t>台南市永康區中華路425號22樓之2</t>
+  </si>
+  <si>
+    <t>23.00988692615231, 120.23272971218717</t>
+  </si>
+  <si>
+    <t>009733770006</t>
+  </si>
+  <si>
+    <t>009733770011</t>
+  </si>
+  <si>
+    <t>009733770001</t>
+  </si>
+  <si>
+    <t>009733770004</t>
+  </si>
+  <si>
+    <t>009733770010</t>
+  </si>
+  <si>
+    <t>009733770005</t>
+  </si>
+  <si>
+    <t>009733770008</t>
+  </si>
+  <si>
+    <t>009733770009</t>
+  </si>
+  <si>
+    <t>200921050001</t>
+  </si>
+  <si>
+    <t>414862670001</t>
+  </si>
+  <si>
+    <t>488148560003</t>
+  </si>
+  <si>
+    <t>256848730001</t>
+  </si>
+  <si>
+    <t>737625950003</t>
+  </si>
+  <si>
+    <t>737625950002</t>
+  </si>
+  <si>
+    <t>737625950005</t>
+  </si>
+  <si>
+    <t>889149440001</t>
+  </si>
+  <si>
+    <t>145429400001</t>
+  </si>
+  <si>
+    <t>147226750001</t>
+  </si>
+  <si>
+    <t>135419160003</t>
+  </si>
+  <si>
+    <t>135419160007</t>
+  </si>
+  <si>
+    <t>135419160009</t>
+  </si>
+  <si>
+    <t>998177850001</t>
+  </si>
+  <si>
+    <t>041799200003</t>
+  </si>
+  <si>
+    <t>041799200001</t>
+  </si>
+  <si>
+    <t>041799200002</t>
+  </si>
+  <si>
+    <t>041799200007</t>
+  </si>
+  <si>
+    <t>931543030001</t>
+  </si>
+  <si>
+    <t>943074480001</t>
+  </si>
+  <si>
+    <t>027480880003</t>
+  </si>
+  <si>
+    <t>027480880004</t>
+  </si>
+  <si>
+    <t>041213430001</t>
+  </si>
+  <si>
+    <t>737551720001</t>
+  </si>
+  <si>
+    <t>737551720005</t>
+  </si>
+  <si>
+    <t>737551720004</t>
+  </si>
+  <si>
+    <t>194671740005</t>
+  </si>
+  <si>
+    <t>194671740001</t>
+  </si>
+  <si>
+    <t>194671740004</t>
+  </si>
+  <si>
+    <t>194671740002</t>
+  </si>
+  <si>
+    <t>748052830001</t>
+  </si>
+  <si>
+    <t>525172190001</t>
+  </si>
+  <si>
+    <t>525172190003</t>
+  </si>
+  <si>
+    <t>525172190002</t>
+  </si>
+  <si>
+    <t>086141150001</t>
+  </si>
+  <si>
+    <t>048610640003</t>
+  </si>
+  <si>
+    <t>048610640002</t>
+  </si>
+  <si>
+    <t>048610640008</t>
+  </si>
+  <si>
+    <t>048610640011</t>
+  </si>
+  <si>
+    <t>048610640005</t>
+  </si>
+  <si>
+    <t>048610640009</t>
+  </si>
+  <si>
+    <t>048610640013</t>
+  </si>
+  <si>
+    <t>048610640010</t>
+  </si>
+  <si>
+    <t>048610640004</t>
+  </si>
+  <si>
+    <t>048610640006</t>
+  </si>
+  <si>
+    <t>099741920001</t>
+  </si>
+  <si>
+    <t>506860330001</t>
+  </si>
+  <si>
+    <t>089702050001</t>
+  </si>
+  <si>
+    <t>149744750001</t>
+  </si>
+  <si>
+    <t>254812380001</t>
+  </si>
+  <si>
+    <t>315321580001</t>
+  </si>
+  <si>
+    <t>009879780001</t>
+  </si>
+  <si>
+    <t>009879780002</t>
+  </si>
+  <si>
+    <t>262021150001</t>
+  </si>
+  <si>
+    <t>098364460001</t>
+  </si>
+  <si>
+    <t>171375630001</t>
+  </si>
+  <si>
+    <t>171375630007</t>
+  </si>
+  <si>
+    <t>171375630004</t>
+  </si>
+  <si>
+    <t>171375630005</t>
+  </si>
+  <si>
+    <t>171375630006</t>
+  </si>
+  <si>
+    <t>414544980002</t>
+  </si>
+  <si>
+    <t>195970420001</t>
+  </si>
+  <si>
+    <t>261086880001</t>
+  </si>
+  <si>
+    <t>184165210001</t>
+  </si>
+  <si>
+    <t>089207690001</t>
+  </si>
+  <si>
+    <t>825407580001</t>
+  </si>
+  <si>
+    <t>454021610001</t>
+  </si>
+  <si>
+    <t>293865870001</t>
+  </si>
+  <si>
+    <t>097457970001</t>
+  </si>
+  <si>
+    <t>042085920001</t>
+  </si>
+  <si>
+    <t>060460250001</t>
+  </si>
+  <si>
+    <t>691001020001</t>
+  </si>
+  <si>
+    <t>767459380001</t>
+  </si>
+  <si>
+    <t>068933650001</t>
+  </si>
+  <si>
+    <t>042085920002</t>
+  </si>
+  <si>
+    <t>041405870001</t>
+  </si>
+  <si>
+    <t>041201960001</t>
+  </si>
+  <si>
+    <t>833003070001</t>
+  </si>
+  <si>
+    <t>082668050001</t>
+  </si>
+  <si>
+    <t>948459510001</t>
+  </si>
+  <si>
+    <t>982261370001</t>
+  </si>
+  <si>
+    <t>871556550001</t>
+  </si>
+  <si>
+    <t>452248200005</t>
+  </si>
+  <si>
+    <t>339381490001</t>
+  </si>
+  <si>
+    <t>666204940001</t>
+  </si>
+  <si>
+    <t>665107150001</t>
+  </si>
+  <si>
+    <t>591855390001</t>
+  </si>
+  <si>
+    <t>558389030001</t>
+  </si>
+  <si>
+    <t>720219050002</t>
+  </si>
+  <si>
+    <t>社團法人中華安全與健康推廣發展協會附設苗栗職業訓訓中心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
     <t>林芳?</t>
-  </si>
-  <si>
-    <t>新北市板橋區民族路260號3樓</t>
-  </si>
-  <si>
-    <t>25.007095285481434, 121.46948583246436</t>
-  </si>
-  <si>
-    <t>社團法人台灣勞動職業安全衛生協會附設雲林職業訓練中心</t>
-  </si>
-  <si>
-    <t>蔡書通</t>
-  </si>
-  <si>
-    <t>taiwan5890@yahoo.com</t>
-  </si>
-  <si>
-    <t>雲林縣林內鄉九芎村和平路72號</t>
-  </si>
-  <si>
-    <t>23.74761224611867, 120.60518798336531</t>
-  </si>
-  <si>
-    <t>社團法人宜蘭縣勞工教育協進會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>宜蘭縣政府</t>
-  </si>
-  <si>
-    <t>莊盈慧</t>
-  </si>
-  <si>
-    <t>03-9605669</t>
-  </si>
-  <si>
-    <t>g69.g43@msa.hinet.net</t>
-  </si>
-  <si>
-    <t>宜蘭縣羅東鎮中山路二段123號</t>
-  </si>
-  <si>
-    <t>24.67336156324799, 121.78284189687558</t>
-  </si>
-  <si>
-    <t>社團法人花蓮縣勞工安全衛生教育協進會附設花蓮縣職業訓練中心</t>
-  </si>
-  <si>
-    <t>張銘偉</t>
-  </si>
-  <si>
-    <t>03-8567997</t>
-  </si>
-  <si>
-    <t>ay73.ay73@hotmail.com</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市中央路三段659號</t>
-  </si>
-  <si>
-    <t>23.991430423142496, 121.59017495268093</t>
-  </si>
-  <si>
-    <t>社團法人高雄市勞資事務協進會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>訓練中心主任</t>
-  </si>
-  <si>
-    <t>卓水源</t>
-  </si>
-  <si>
-    <t>07-5372885</t>
-  </si>
-  <si>
-    <t>a0910665537@gmai.com</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區一心二路128號11樓之1</t>
-  </si>
-  <si>
-    <t>22.612246587649814, 120.3088857545074</t>
-  </si>
-  <si>
-    <t>社團法人高雄市職業安全第一協會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>方瑞邦</t>
-  </si>
-  <si>
-    <t>07-7138871</t>
-  </si>
-  <si>
-    <t>khhno1@gmail.com</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區瑞隆路472號2樓</t>
-  </si>
-  <si>
-    <t>22.605719070802603, 120.32935018334342</t>
-  </si>
-  <si>
-    <t>社團法人台灣安全衛生協會附設台中職業訓練中心</t>
-  </si>
-  <si>
-    <t>賴志青</t>
-  </si>
-  <si>
-    <t>04-24069066</t>
-  </si>
-  <si>
-    <t>tshtcvtc@gmail.com</t>
-  </si>
-  <si>
-    <t>台中市大里區大明路391號9樓</t>
-  </si>
-  <si>
-    <t>24.115148383408158, 120.67978485453649</t>
-  </si>
-  <si>
-    <t>社團法人台灣安全衛生協會附設苗栗職業訓練中心</t>
-  </si>
-  <si>
-    <t>行政管理處長</t>
-  </si>
-  <si>
-    <t>陳淑英</t>
-  </si>
-  <si>
-    <t>037-479808</t>
-  </si>
-  <si>
-    <t>mauzong.lin@msa.hinet.net</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮福德路1號</t>
-  </si>
-  <si>
-    <t>24.68315669782477, 120.88013545454821</t>
-  </si>
-  <si>
-    <t>台灣省安全衛生教育協會附設高雄職業訓練中心</t>
-  </si>
-  <si>
-    <t>張澧漢</t>
-  </si>
-  <si>
-    <t>07-2367666</t>
-  </si>
-  <si>
-    <t>esh.ksg@msa.hinet.net</t>
-  </si>
-  <si>
-    <t>高雄市新興區七賢一路251號17樓</t>
-  </si>
-  <si>
-    <t>22.63405841225203, 120.30948009683549</t>
-  </si>
-  <si>
-    <t>桃園市勞動安全衛生協會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>03-4950120</t>
-  </si>
-  <si>
-    <t>ufjl2240@yahoo.com.tw</t>
-  </si>
-  <si>
-    <t>桃園市中壢區環北路7號3樓</t>
-  </si>
-  <si>
-    <t>24.96611467786633, 121.2170385122263</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心(台北)</t>
-  </si>
-  <si>
-    <t>董事長</t>
-  </si>
-  <si>
-    <t>許勝雄</t>
-  </si>
-  <si>
-    <t>02-25555525</t>
-  </si>
-  <si>
-    <t>02985@cpc.tw</t>
-  </si>
-  <si>
-    <t>台北市大同區承德路二段81號B1</t>
-  </si>
-  <si>
-    <t>25.05622663818693, 121.51851371222807</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心附設中區服務處</t>
-  </si>
-  <si>
-    <t>04-23505038</t>
-  </si>
-  <si>
-    <t>02089@cpc.tw</t>
-  </si>
-  <si>
-    <t>台中市西屯區工業區38路189號</t>
-  </si>
-  <si>
-    <t>24.172904292185017, 120.58883185453773</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心附設台南服務處</t>
-  </si>
-  <si>
-    <t>協理</t>
-  </si>
-  <si>
-    <t>李沐恩</t>
-  </si>
-  <si>
-    <t>06-2134413</t>
-  </si>
-  <si>
-    <t>01529@cpc.tw</t>
-  </si>
-  <si>
-    <t>台南市中西區大埔街52號</t>
-  </si>
-  <si>
-    <t>22.98761843205301, 120.20684942382512</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心附設南雲服務處</t>
-  </si>
-  <si>
-    <t>經理</t>
-  </si>
-  <si>
-    <t>曾英富</t>
-  </si>
-  <si>
-    <t>05-5341379</t>
-  </si>
-  <si>
-    <t>02802@cpc.org.tw</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市雲林路二段225號11樓</t>
-  </si>
-  <si>
-    <t>23.703332229956107, 120.53177853918368</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心附設高雄服務處</t>
-  </si>
-  <si>
-    <t>07-3362918</t>
-  </si>
-  <si>
-    <t>01040@cpc.tw</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區成功一路232號15樓</t>
-  </si>
-  <si>
-    <t>22.617947471660614, 120.29659322567139</t>
-  </si>
-  <si>
-    <t>財團法人中國生產力中心桃園服務處</t>
-  </si>
-  <si>
-    <t>03-3385791</t>
-  </si>
-  <si>
-    <t>01110@cpc.org.tw</t>
-  </si>
-  <si>
-    <t>桃園市桃園區成功路二段7號4樓</t>
-  </si>
-  <si>
-    <t>24.993707584651087, 121.31430036804605</t>
-  </si>
-  <si>
-    <t>財團法人中華民國職業訓練研究發展中心</t>
-  </si>
-  <si>
-    <t>苗豐強</t>
-  </si>
-  <si>
-    <t>02-27075111</t>
-  </si>
-  <si>
-    <t>emily@training.org.tw</t>
-  </si>
-  <si>
-    <t>台北市大安區復興南路一段390號11樓</t>
-  </si>
-  <si>
-    <t>25.03388567590091, 121.5432716103745</t>
-  </si>
-  <si>
-    <t>財團法人中華航業人員訓練中心</t>
-  </si>
-  <si>
-    <t>李在方</t>
-  </si>
-  <si>
-    <t>02-24922118</t>
-  </si>
-  <si>
-    <t>ff934ddg908@yahoo.com.tw</t>
-  </si>
-  <si>
-    <t>新北市萬里區瑪鋉路15號</t>
-  </si>
-  <si>
-    <t>25.175600049225693, 121.68753523921373</t>
-  </si>
-  <si>
-    <t>財團法人金屬工業研究發展中心</t>
-  </si>
-  <si>
-    <t>林仁益</t>
-  </si>
-  <si>
-    <t>07-3513121-2443</t>
-  </si>
-  <si>
-    <t>davisi@mail.mirdc.org.tw</t>
-  </si>
-  <si>
-    <t>高雄市楠梓區高楠公路1001號</t>
-  </si>
-  <si>
-    <t>22.714254184850443, 120.3252446986901</t>
-  </si>
-  <si>
-    <t>高雄市起重機具協會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>職訓負責人</t>
-  </si>
-  <si>
-    <t>黃立村</t>
-  </si>
-  <si>
-    <t>07-8221405</t>
-  </si>
-  <si>
-    <t>kscrane@seed.net.tw</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區天后街70號4樓</t>
-  </si>
-  <si>
-    <t>22.571337634379585, 120.32108806799805</t>
-  </si>
-  <si>
-    <t>社團法人中華產業機械設備協會附設高雄職業訓練中心</t>
-  </si>
-  <si>
-    <t>孫榮宏</t>
-  </si>
-  <si>
-    <t>07-9769930</t>
-  </si>
-  <si>
-    <t>cimaf533@gmail.com</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區中山二路260號17樓A1</t>
-  </si>
-  <si>
-    <t>22.613451279557676, 120.30511386799891</t>
-  </si>
-  <si>
-    <t>依法組織之雇主團體</t>
-  </si>
-  <si>
-    <t>社團法人桃園市工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>賀健中</t>
-  </si>
-  <si>
-    <t>03-3379022</t>
-  </si>
-  <si>
-    <t>t223@tcia.org.tw</t>
-  </si>
-  <si>
-    <t>桃園市桃園區縣府路332號11樓</t>
-  </si>
-  <si>
-    <t>24.992224174826504, 121.30086739688204</t>
-  </si>
-  <si>
-    <t>黃仲傑</t>
-  </si>
-  <si>
-    <t>037-666600</t>
-  </si>
-  <si>
-    <t>anje037666600@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份市水源路231號</t>
-  </si>
-  <si>
-    <t>24.673809207598, 120.91466916803944</t>
-  </si>
-  <si>
-    <t>依法組織之勞工團體</t>
-  </si>
-  <si>
-    <t>雲林縣職業總工會附設麥寮職業訓練中心</t>
-  </si>
-  <si>
-    <t>張聰明</t>
-  </si>
-  <si>
-    <t>05-5529082</t>
-  </si>
-  <si>
-    <t>YL.ML.vtc@gmail.com</t>
-  </si>
-  <si>
-    <t>雲林縣麥寮鄉泰順路333巷3號</t>
-  </si>
-  <si>
-    <t>23.752171500559584, 120.25387418336531</t>
-  </si>
-  <si>
-    <t>新北市工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>游明智</t>
-  </si>
-  <si>
-    <t>02-29559077</t>
-  </si>
-  <si>
-    <t>book@ntcia.org.tw</t>
-  </si>
-  <si>
-    <t>新北市板橋區重慶路66號4樓</t>
-  </si>
-  <si>
-    <t>25.006788116693173, 121.46158669688242</t>
-  </si>
-  <si>
-    <t>嘉義市工業會附設職訓中心</t>
-  </si>
-  <si>
-    <t>古宏麟</t>
-  </si>
-  <si>
-    <t>05-2250601~2</t>
-  </si>
-  <si>
-    <t>miga.a0602@gmail.com</t>
-  </si>
-  <si>
-    <t>嘉義市東區興業東路316號7樓</t>
-  </si>
-  <si>
-    <t>23.469960145329313, 120.46111897906052</t>
-  </si>
-  <si>
-    <t>嘉義縣工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>鄭義勇</t>
-  </si>
-  <si>
-    <t>05-2784321</t>
-  </si>
-  <si>
-    <t>qywlin@gmail.com</t>
-  </si>
-  <si>
-    <t>義市東區民權路278號</t>
-  </si>
-  <si>
-    <t>23.482983301600527, 120.45185612568784</t>
-  </si>
-  <si>
-    <t>彰化縣工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>陳永興</t>
-  </si>
-  <si>
-    <t>04-7256655</t>
-  </si>
-  <si>
-    <t>002@mail-ch-industry.org.tw</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市民族路209號</t>
-  </si>
-  <si>
-    <t>24.07090626314975, 120.53859445453568</t>
-  </si>
-  <si>
-    <t>臺中市總工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>徐政宏</t>
-  </si>
-  <si>
-    <t>04-25262934</t>
-  </si>
-  <si>
-    <t>amy@thiu.org.tw</t>
-  </si>
-  <si>
-    <t>台中市豐原區東仁街138號6樓</t>
-  </si>
-  <si>
-    <t>24.257711357013637, 120.72627031895745</t>
-  </si>
-  <si>
-    <t>臺南市總工業會附設職業訓練中心</t>
-  </si>
-  <si>
-    <t>蔡明忠</t>
-  </si>
-  <si>
-    <t>06-3020099</t>
-  </si>
-  <si>
-    <t>tncia33@tncia.org.tw</t>
-  </si>
-  <si>
-    <t>台南市永康區中華路425號22樓之2</t>
-  </si>
-  <si>
-    <t>23.00988692615231, 120.23272971218717</t>
-  </si>
-  <si>
-    <t>009733770006</t>
-  </si>
-  <si>
-    <t>009733770011</t>
-  </si>
-  <si>
-    <t>009733770001</t>
-  </si>
-  <si>
-    <t>009733770004</t>
-  </si>
-  <si>
-    <t>009733770010</t>
-  </si>
-  <si>
-    <t>009733770005</t>
-  </si>
-  <si>
-    <t>009733770008</t>
-  </si>
-  <si>
-    <t>009733770009</t>
-  </si>
-  <si>
-    <t>200921050001</t>
-  </si>
-  <si>
-    <t>414862670001</t>
-  </si>
-  <si>
-    <t>488148560003</t>
-  </si>
-  <si>
-    <t>256848730001</t>
-  </si>
-  <si>
-    <t>737625950003</t>
-  </si>
-  <si>
-    <t>737625950002</t>
-  </si>
-  <si>
-    <t>737625950005</t>
-  </si>
-  <si>
-    <t>889149440001</t>
-  </si>
-  <si>
-    <t>145429400001</t>
-  </si>
-  <si>
-    <t>147226750001</t>
-  </si>
-  <si>
-    <t>135419160003</t>
-  </si>
-  <si>
-    <t>135419160007</t>
-  </si>
-  <si>
-    <t>135419160009</t>
-  </si>
-  <si>
-    <t>998177850001</t>
-  </si>
-  <si>
-    <t>041799200003</t>
-  </si>
-  <si>
-    <t>041799200001</t>
-  </si>
-  <si>
-    <t>041799200002</t>
-  </si>
-  <si>
-    <t>041799200007</t>
-  </si>
-  <si>
-    <t>931543030001</t>
-  </si>
-  <si>
-    <t>943074480001</t>
-  </si>
-  <si>
-    <t>027480880003</t>
-  </si>
-  <si>
-    <t>027480880004</t>
-  </si>
-  <si>
-    <t>041213430001</t>
-  </si>
-  <si>
-    <t>737551720001</t>
-  </si>
-  <si>
-    <t>737551720005</t>
-  </si>
-  <si>
-    <t>737551720004</t>
-  </si>
-  <si>
-    <t>194671740005</t>
-  </si>
-  <si>
-    <t>194671740001</t>
-  </si>
-  <si>
-    <t>194671740004</t>
-  </si>
-  <si>
-    <t>194671740002</t>
-  </si>
-  <si>
-    <t>748052830001</t>
-  </si>
-  <si>
-    <t>525172190001</t>
-  </si>
-  <si>
-    <t>525172190003</t>
-  </si>
-  <si>
-    <t>525172190002</t>
-  </si>
-  <si>
-    <t>086141150001</t>
-  </si>
-  <si>
-    <t>048610640003</t>
-  </si>
-  <si>
-    <t>048610640002</t>
-  </si>
-  <si>
-    <t>048610640008</t>
-  </si>
-  <si>
-    <t>048610640011</t>
-  </si>
-  <si>
-    <t>048610640005</t>
-  </si>
-  <si>
-    <t>048610640009</t>
-  </si>
-  <si>
-    <t>048610640013</t>
-  </si>
-  <si>
-    <t>048610640010</t>
-  </si>
-  <si>
-    <t>048610640004</t>
-  </si>
-  <si>
-    <t>048610640006</t>
-  </si>
-  <si>
-    <t>099741920001</t>
-  </si>
-  <si>
-    <t>506860330001</t>
-  </si>
-  <si>
-    <t>089702050001</t>
-  </si>
-  <si>
-    <t>149744750001</t>
-  </si>
-  <si>
-    <t>254812380001</t>
-  </si>
-  <si>
-    <t>315321580001</t>
-  </si>
-  <si>
-    <t>009879780001</t>
-  </si>
-  <si>
-    <t>009879780002</t>
-  </si>
-  <si>
-    <t>262021150001</t>
-  </si>
-  <si>
-    <t>098364460001</t>
-  </si>
-  <si>
-    <t>171375630001</t>
-  </si>
-  <si>
-    <t>171375630007</t>
-  </si>
-  <si>
-    <t>171375630004</t>
-  </si>
-  <si>
-    <t>171375630005</t>
-  </si>
-  <si>
-    <t>171375630006</t>
-  </si>
-  <si>
-    <t>414544980002</t>
-  </si>
-  <si>
-    <t>195970420001</t>
-  </si>
-  <si>
-    <t>261086880001</t>
-  </si>
-  <si>
-    <t>184165210001</t>
-  </si>
-  <si>
-    <t>089207690001</t>
-  </si>
-  <si>
-    <t>825407580001</t>
-  </si>
-  <si>
-    <t>454021610001</t>
-  </si>
-  <si>
-    <t>293865870001</t>
-  </si>
-  <si>
-    <t>097457970001</t>
-  </si>
-  <si>
-    <t>042085920001</t>
-  </si>
-  <si>
-    <t>060460250001</t>
-  </si>
-  <si>
-    <t>691001020001</t>
-  </si>
-  <si>
-    <t>767459380001</t>
-  </si>
-  <si>
-    <t>068933650001</t>
-  </si>
-  <si>
-    <t>042085920002</t>
-  </si>
-  <si>
-    <t>041405870001</t>
-  </si>
-  <si>
-    <t>041201960001</t>
-  </si>
-  <si>
-    <t>833003070001</t>
-  </si>
-  <si>
-    <t>082668050001</t>
-  </si>
-  <si>
-    <t>948459510001</t>
-  </si>
-  <si>
-    <t>982261370001</t>
-  </si>
-  <si>
-    <t>871556550001</t>
-  </si>
-  <si>
-    <t>452248200005</t>
-  </si>
-  <si>
-    <t>339381490001</t>
-  </si>
-  <si>
-    <t>666204940001</t>
-  </si>
-  <si>
-    <t>665107150001</t>
-  </si>
-  <si>
-    <t>591855390001</t>
-  </si>
-  <si>
-    <t>558389030001</t>
-  </si>
-  <si>
-    <t>720219050002</t>
-  </si>
-  <si>
-    <t>社團法人中華安全與健康推廣發展協會附設苗栗職業訓訓中心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-5890300</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市中山區中山二路35號10樓、公文：台北市內湖區成功路4段58號7樓</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2844,7 +2850,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2865,6 +2871,9 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -3250,14 +3259,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="11" max="11" width="32.375" customWidth="1"/>
+    <col min="13" max="13" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3312,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3356,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3400,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3444,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3488,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3532,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3576,7 +3587,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3620,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3664,7 +3675,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -3708,7 +3719,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3752,7 +3763,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
@@ -3796,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D13" t="s">
         <v>75</v>
@@ -3840,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -3884,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -3928,7 +3939,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -3972,7 +3983,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -4016,7 +4027,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -4060,7 +4071,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -4104,7 +4115,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -4148,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -4192,7 +4203,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -4236,7 +4247,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
         <v>75</v>
@@ -4280,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -4324,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -4368,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -4412,7 +4423,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -4456,7 +4467,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -4500,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -4544,7 +4555,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -4588,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -4632,7 +4643,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D32" t="s">
         <v>75</v>
@@ -4676,7 +4687,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -4720,7 +4731,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -4764,7 +4775,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -4808,7 +4819,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -4852,7 +4863,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -4896,7 +4907,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -4940,7 +4951,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -4984,7 +4995,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
@@ -5028,7 +5039,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -5072,7 +5083,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -5116,7 +5127,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -5152,7 +5163,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" ht="33">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5160,7 +5171,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D44" t="s">
         <v>75</v>
@@ -5189,11 +5200,11 @@
       <c r="L44" t="s">
         <v>285</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="N44" t="s">
         <v>286</v>
-      </c>
-      <c r="N44" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5204,13 +5215,13 @@
         <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
@@ -5225,19 +5236,19 @@
         <v>175</v>
       </c>
       <c r="J45" t="s">
+        <v>288</v>
+      </c>
+      <c r="K45" t="s">
         <v>289</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>290</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>291</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>292</v>
-      </c>
-      <c r="N45" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5248,13 +5259,13 @@
         <v>14</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
         <v>43</v>
@@ -5269,19 +5280,19 @@
         <v>175</v>
       </c>
       <c r="J46" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" t="s">
         <v>295</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>296</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>297</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>298</v>
-      </c>
-      <c r="N46" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5292,13 +5303,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -5313,19 +5324,19 @@
         <v>175</v>
       </c>
       <c r="J47" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" t="s">
         <v>301</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>302</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>303</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>304</v>
-      </c>
-      <c r="N47" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5336,13 +5347,13 @@
         <v>14</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -5357,19 +5368,19 @@
         <v>175</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s">
         <v>307</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>308</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>309</v>
-      </c>
-      <c r="N48" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5380,13 +5391,13 @@
         <v>14</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
@@ -5401,19 +5412,19 @@
         <v>175</v>
       </c>
       <c r="J49" t="s">
+        <v>311</v>
+      </c>
+      <c r="K49" t="s">
         <v>312</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>313</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>314</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>315</v>
-      </c>
-      <c r="N49" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5424,13 +5435,13 @@
         <v>14</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -5445,19 +5456,19 @@
         <v>36</v>
       </c>
       <c r="J50" t="s">
+        <v>317</v>
+      </c>
+      <c r="K50" t="s">
         <v>318</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>319</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>320</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>321</v>
-      </c>
-      <c r="N50" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5468,13 +5479,13 @@
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F51" t="s">
         <v>43</v>
@@ -5489,19 +5500,19 @@
         <v>175</v>
       </c>
       <c r="J51" t="s">
+        <v>323</v>
+      </c>
+      <c r="K51" t="s">
         <v>324</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>325</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>326</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>327</v>
-      </c>
-      <c r="N51" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5512,13 +5523,13 @@
         <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
         <v>43</v>
@@ -5527,25 +5538,25 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I52" t="s">
         <v>175</v>
       </c>
       <c r="J52" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" t="s">
         <v>331</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>332</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>333</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>334</v>
-      </c>
-      <c r="N52" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5556,13 +5567,13 @@
         <v>14</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
@@ -5577,19 +5588,19 @@
         <v>175</v>
       </c>
       <c r="J53" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" t="s">
         <v>337</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>338</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>339</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>340</v>
-      </c>
-      <c r="N53" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5600,13 +5611,13 @@
         <v>14</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
@@ -5621,19 +5632,19 @@
         <v>175</v>
       </c>
       <c r="J54" t="s">
+        <v>342</v>
+      </c>
+      <c r="K54" t="s">
         <v>343</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>344</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>345</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>346</v>
-      </c>
-      <c r="N54" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5644,13 +5655,13 @@
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D55" t="s">
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F55" t="s">
         <v>103</v>
@@ -5665,19 +5676,19 @@
         <v>36</v>
       </c>
       <c r="J55" t="s">
+        <v>348</v>
+      </c>
+      <c r="K55" t="s">
         <v>349</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>350</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>351</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>352</v>
-      </c>
-      <c r="N55" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5688,13 +5699,13 @@
         <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D56" t="s">
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -5709,19 +5720,19 @@
         <v>77</v>
       </c>
       <c r="J56" t="s">
+        <v>354</v>
+      </c>
+      <c r="K56" t="s">
         <v>355</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>356</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>357</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>358</v>
-      </c>
-      <c r="N56" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5732,13 +5743,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D57" t="s">
         <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -5753,19 +5764,19 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" t="s">
         <v>361</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>362</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>363</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>364</v>
-      </c>
-      <c r="N57" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5776,13 +5787,13 @@
         <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -5797,19 +5808,19 @@
         <v>36</v>
       </c>
       <c r="J58" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" t="s">
         <v>367</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>368</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>369</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>370</v>
-      </c>
-      <c r="N58" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5820,13 +5831,13 @@
         <v>14</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -5841,19 +5852,19 @@
         <v>36</v>
       </c>
       <c r="J59" t="s">
+        <v>372</v>
+      </c>
+      <c r="K59" t="s">
         <v>373</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>374</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>375</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>376</v>
-      </c>
-      <c r="N59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5864,13 +5875,13 @@
         <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D60" t="s">
         <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F60" t="s">
         <v>90</v>
@@ -5879,25 +5890,25 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
         <v>9</v>
       </c>
       <c r="J60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K60" t="s">
         <v>379</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>380</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>381</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>382</v>
-      </c>
-      <c r="N60" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5908,13 +5919,13 @@
         <v>14</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
         <v>103</v>
@@ -5929,19 +5940,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s">
+        <v>384</v>
+      </c>
+      <c r="K61" t="s">
         <v>385</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>386</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>387</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>388</v>
-      </c>
-      <c r="N61" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5952,13 +5963,13 @@
         <v>14</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -5973,19 +5984,19 @@
         <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K62" t="s">
+        <v>390</v>
+      </c>
+      <c r="L62" t="s">
         <v>391</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>392</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>393</v>
-      </c>
-      <c r="N62" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -5996,13 +6007,13 @@
         <v>14</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -6017,19 +6028,19 @@
         <v>36</v>
       </c>
       <c r="J63" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" t="s">
         <v>396</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>397</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>398</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>399</v>
-      </c>
-      <c r="N63" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -6040,13 +6051,13 @@
         <v>14</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D64" t="s">
         <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F64" t="s">
         <v>50</v>
@@ -6061,19 +6072,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s">
+        <v>401</v>
+      </c>
+      <c r="K64" t="s">
         <v>402</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>403</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>404</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>405</v>
-      </c>
-      <c r="N64" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -6084,13 +6095,13 @@
         <v>14</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
@@ -6105,19 +6116,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s">
+        <v>407</v>
+      </c>
+      <c r="K65" t="s">
         <v>408</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>409</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>410</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>411</v>
-      </c>
-      <c r="N65" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -6128,13 +6139,13 @@
         <v>14</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -6149,19 +6160,19 @@
         <v>36</v>
       </c>
       <c r="J66" t="s">
+        <v>413</v>
+      </c>
+      <c r="K66" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" t="s">
+        <v>409</v>
+      </c>
+      <c r="M66" t="s">
         <v>414</v>
       </c>
-      <c r="K66" t="s">
-        <v>409</v>
-      </c>
-      <c r="L66" t="s">
-        <v>410</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>415</v>
-      </c>
-      <c r="N66" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6172,13 +6183,13 @@
         <v>14</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -6193,19 +6204,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s">
+        <v>407</v>
+      </c>
+      <c r="K67" t="s">
         <v>408</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>409</v>
       </c>
-      <c r="L67" t="s">
-        <v>410</v>
-      </c>
       <c r="M67" t="s">
+        <v>417</v>
+      </c>
+      <c r="N67" t="s">
         <v>418</v>
-      </c>
-      <c r="N67" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6216,13 +6227,13 @@
         <v>14</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F68" t="s">
         <v>50</v>
@@ -6237,19 +6248,19 @@
         <v>9</v>
       </c>
       <c r="J68" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" t="s">
         <v>421</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>422</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>423</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>424</v>
-      </c>
-      <c r="N68" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6260,13 +6271,13 @@
         <v>14</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F69" t="s">
         <v>50</v>
@@ -6281,19 +6292,19 @@
         <v>175</v>
       </c>
       <c r="J69" t="s">
+        <v>703</v>
+      </c>
+      <c r="K69" t="s">
+        <v>408</v>
+      </c>
+      <c r="L69" t="s">
+        <v>409</v>
+      </c>
+      <c r="M69" t="s">
+        <v>426</v>
+      </c>
+      <c r="N69" t="s">
         <v>427</v>
-      </c>
-      <c r="K69" t="s">
-        <v>409</v>
-      </c>
-      <c r="L69" t="s">
-        <v>410</v>
-      </c>
-      <c r="M69" t="s">
-        <v>428</v>
-      </c>
-      <c r="N69" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -6304,13 +6315,13 @@
         <v>14</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -6325,19 +6336,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s">
+        <v>704</v>
+      </c>
+      <c r="L70" t="s">
+        <v>430</v>
+      </c>
+      <c r="M70" t="s">
         <v>431</v>
       </c>
-      <c r="K70">
-        <v>55890300</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>432</v>
-      </c>
-      <c r="M70" t="s">
-        <v>433</v>
-      </c>
-      <c r="N70" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6348,13 +6359,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -6363,25 +6374,25 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I71" t="s">
         <v>77</v>
       </c>
       <c r="J71" t="s">
+        <v>435</v>
+      </c>
+      <c r="K71" t="s">
+        <v>436</v>
+      </c>
+      <c r="L71" t="s">
         <v>437</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>438</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>439</v>
-      </c>
-      <c r="M71" t="s">
-        <v>440</v>
-      </c>
-      <c r="N71" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6392,13 +6403,13 @@
         <v>14</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -6413,19 +6424,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s">
+        <v>441</v>
+      </c>
+      <c r="K72" t="s">
+        <v>442</v>
+      </c>
+      <c r="L72" t="s">
         <v>443</v>
       </c>
-      <c r="K72" t="s">
+      <c r="M72" t="s">
         <v>444</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>445</v>
-      </c>
-      <c r="M72" t="s">
-        <v>446</v>
-      </c>
-      <c r="N72" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -6436,13 +6447,13 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F73" t="s">
         <v>103</v>
@@ -6454,22 +6465,22 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
+        <v>447</v>
+      </c>
+      <c r="J73" t="s">
+        <v>448</v>
+      </c>
+      <c r="K73" t="s">
         <v>449</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>450</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>451</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>452</v>
-      </c>
-      <c r="M73" t="s">
-        <v>453</v>
-      </c>
-      <c r="N73" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6480,13 +6491,13 @@
         <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D74" t="s">
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -6501,19 +6512,19 @@
         <v>36</v>
       </c>
       <c r="J74" t="s">
+        <v>454</v>
+      </c>
+      <c r="K74" t="s">
+        <v>455</v>
+      </c>
+      <c r="L74" t="s">
         <v>456</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>457</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>458</v>
-      </c>
-      <c r="M74" t="s">
-        <v>459</v>
-      </c>
-      <c r="N74" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -6524,13 +6535,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -6545,19 +6556,19 @@
         <v>36</v>
       </c>
       <c r="J75" t="s">
+        <v>460</v>
+      </c>
+      <c r="K75" t="s">
+        <v>461</v>
+      </c>
+      <c r="L75" t="s">
         <v>462</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>463</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>464</v>
-      </c>
-      <c r="M75" t="s">
-        <v>465</v>
-      </c>
-      <c r="N75" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -6568,13 +6579,13 @@
         <v>14</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -6586,22 +6597,22 @@
         <v>213</v>
       </c>
       <c r="I76" t="s">
+        <v>466</v>
+      </c>
+      <c r="J76" t="s">
+        <v>467</v>
+      </c>
+      <c r="K76" t="s">
         <v>468</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>469</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>470</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>471</v>
-      </c>
-      <c r="M76" t="s">
-        <v>472</v>
-      </c>
-      <c r="N76" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -6612,13 +6623,13 @@
         <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D77" t="s">
         <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F77" t="s">
         <v>50</v>
@@ -6633,19 +6644,19 @@
         <v>77</v>
       </c>
       <c r="J77" t="s">
+        <v>473</v>
+      </c>
+      <c r="K77" t="s">
+        <v>474</v>
+      </c>
+      <c r="L77" t="s">
         <v>475</v>
       </c>
-      <c r="K77" t="s">
+      <c r="M77" t="s">
         <v>476</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>477</v>
-      </c>
-      <c r="M77" t="s">
-        <v>478</v>
-      </c>
-      <c r="N77" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -6656,13 +6667,13 @@
         <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -6677,19 +6688,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K78" t="s">
+        <v>479</v>
+      </c>
+      <c r="L78" t="s">
+        <v>480</v>
+      </c>
+      <c r="M78" t="s">
         <v>481</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>482</v>
-      </c>
-      <c r="M78" t="s">
-        <v>483</v>
-      </c>
-      <c r="N78" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -6700,13 +6711,13 @@
         <v>14</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F79" t="s">
         <v>43</v>
@@ -6718,22 +6729,22 @@
         <v>35</v>
       </c>
       <c r="I79" t="s">
+        <v>484</v>
+      </c>
+      <c r="J79" t="s">
+        <v>485</v>
+      </c>
+      <c r="K79" t="s">
         <v>486</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
         <v>487</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>488</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>489</v>
-      </c>
-      <c r="M79" t="s">
-        <v>490</v>
-      </c>
-      <c r="N79" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -6744,13 +6755,13 @@
         <v>14</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F80" t="s">
         <v>43</v>
@@ -6762,22 +6773,22 @@
         <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J80" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s">
+        <v>491</v>
+      </c>
+      <c r="L80" t="s">
+        <v>492</v>
+      </c>
+      <c r="M80" t="s">
         <v>493</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>494</v>
-      </c>
-      <c r="M80" t="s">
-        <v>495</v>
-      </c>
-      <c r="N80" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -6788,13 +6799,13 @@
         <v>14</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
@@ -6806,22 +6817,22 @@
         <v>51</v>
       </c>
       <c r="I81" t="s">
+        <v>496</v>
+      </c>
+      <c r="J81" t="s">
+        <v>497</v>
+      </c>
+      <c r="K81" t="s">
         <v>498</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>499</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
         <v>500</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>501</v>
-      </c>
-      <c r="M81" t="s">
-        <v>502</v>
-      </c>
-      <c r="N81" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -6832,13 +6843,13 @@
         <v>14</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -6850,22 +6861,22 @@
         <v>182</v>
       </c>
       <c r="I82" t="s">
+        <v>503</v>
+      </c>
+      <c r="J82" t="s">
+        <v>504</v>
+      </c>
+      <c r="K82" t="s">
         <v>505</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>506</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>507</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>508</v>
-      </c>
-      <c r="M82" t="s">
-        <v>509</v>
-      </c>
-      <c r="N82" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -6876,13 +6887,13 @@
         <v>14</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F83" t="s">
         <v>43</v>
@@ -6894,22 +6905,22 @@
         <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J83" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K83" t="s">
+        <v>510</v>
+      </c>
+      <c r="L83" t="s">
+        <v>511</v>
+      </c>
+      <c r="M83" t="s">
         <v>512</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>513</v>
-      </c>
-      <c r="M83" t="s">
-        <v>514</v>
-      </c>
-      <c r="N83" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -6920,13 +6931,13 @@
         <v>14</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -6938,22 +6949,22 @@
         <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J84" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K84" t="s">
+        <v>515</v>
+      </c>
+      <c r="L84" t="s">
+        <v>516</v>
+      </c>
+      <c r="M84" t="s">
         <v>517</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>518</v>
-      </c>
-      <c r="M84" t="s">
-        <v>519</v>
-      </c>
-      <c r="N84" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -6964,13 +6975,13 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D85" t="s">
         <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -6982,22 +6993,22 @@
         <v>35</v>
       </c>
       <c r="I85" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J85" t="s">
+        <v>520</v>
+      </c>
+      <c r="K85" t="s">
+        <v>521</v>
+      </c>
+      <c r="L85" t="s">
         <v>522</v>
       </c>
-      <c r="K85" t="s">
+      <c r="M85" t="s">
         <v>523</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>524</v>
-      </c>
-      <c r="M85" t="s">
-        <v>525</v>
-      </c>
-      <c r="N85" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -7008,13 +7019,13 @@
         <v>14</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D86" t="s">
         <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -7026,22 +7037,22 @@
         <v>104</v>
       </c>
       <c r="I86" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J86" t="s">
+        <v>526</v>
+      </c>
+      <c r="K86" t="s">
+        <v>527</v>
+      </c>
+      <c r="L86" t="s">
         <v>528</v>
       </c>
-      <c r="K86" t="s">
+      <c r="M86" t="s">
         <v>529</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>530</v>
-      </c>
-      <c r="M86" t="s">
-        <v>531</v>
-      </c>
-      <c r="N86" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -7052,13 +7063,13 @@
         <v>14</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F87" t="s">
         <v>43</v>
@@ -7070,22 +7081,22 @@
         <v>64</v>
       </c>
       <c r="I87" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J87" t="s">
+        <v>532</v>
+      </c>
+      <c r="K87" t="s">
+        <v>533</v>
+      </c>
+      <c r="L87" t="s">
         <v>534</v>
       </c>
-      <c r="K87" t="s">
+      <c r="M87" t="s">
         <v>535</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>536</v>
-      </c>
-      <c r="M87" t="s">
-        <v>537</v>
-      </c>
-      <c r="N87" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -7096,13 +7107,13 @@
         <v>14</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D88" t="s">
         <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -7114,22 +7125,22 @@
         <v>64</v>
       </c>
       <c r="I88" t="s">
+        <v>538</v>
+      </c>
+      <c r="J88" t="s">
+        <v>539</v>
+      </c>
+      <c r="K88" t="s">
         <v>540</v>
       </c>
-      <c r="J88" t="s">
+      <c r="L88" t="s">
         <v>541</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>542</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>543</v>
-      </c>
-      <c r="M88" t="s">
-        <v>544</v>
-      </c>
-      <c r="N88" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -7140,13 +7151,13 @@
         <v>14</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D89" t="s">
         <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -7161,19 +7172,19 @@
         <v>77</v>
       </c>
       <c r="J89" t="s">
+        <v>545</v>
+      </c>
+      <c r="K89" t="s">
+        <v>546</v>
+      </c>
+      <c r="L89" t="s">
         <v>547</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>548</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>549</v>
-      </c>
-      <c r="M89" t="s">
-        <v>550</v>
-      </c>
-      <c r="N89" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -7181,16 +7192,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
@@ -7205,19 +7216,19 @@
         <v>36</v>
       </c>
       <c r="J90" t="s">
+        <v>552</v>
+      </c>
+      <c r="K90" t="s">
+        <v>553</v>
+      </c>
+      <c r="L90" t="s">
         <v>554</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>555</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>556</v>
-      </c>
-      <c r="M90" t="s">
-        <v>557</v>
-      </c>
-      <c r="N90" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -7228,13 +7239,13 @@
         <v>14</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -7249,19 +7260,19 @@
         <v>77</v>
       </c>
       <c r="J91" t="s">
+        <v>557</v>
+      </c>
+      <c r="K91" t="s">
+        <v>558</v>
+      </c>
+      <c r="L91" t="s">
         <v>559</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>560</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>561</v>
-      </c>
-      <c r="M91" t="s">
-        <v>562</v>
-      </c>
-      <c r="N91" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7269,16 +7280,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -7293,19 +7304,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s">
+        <v>564</v>
+      </c>
+      <c r="K92" t="s">
+        <v>565</v>
+      </c>
+      <c r="L92" t="s">
         <v>566</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>567</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>568</v>
-      </c>
-      <c r="M92" t="s">
-        <v>569</v>
-      </c>
-      <c r="N92" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -7313,16 +7324,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -7337,19 +7348,19 @@
         <v>58</v>
       </c>
       <c r="J93" t="s">
+        <v>570</v>
+      </c>
+      <c r="K93" t="s">
+        <v>571</v>
+      </c>
+      <c r="L93" t="s">
         <v>572</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>573</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>574</v>
-      </c>
-      <c r="M93" t="s">
-        <v>575</v>
-      </c>
-      <c r="N93" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -7357,16 +7368,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -7381,19 +7392,19 @@
         <v>77</v>
       </c>
       <c r="J94" t="s">
+        <v>576</v>
+      </c>
+      <c r="K94" t="s">
+        <v>577</v>
+      </c>
+      <c r="L94" t="s">
         <v>578</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>579</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>580</v>
-      </c>
-      <c r="M94" t="s">
-        <v>581</v>
-      </c>
-      <c r="N94" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -7401,16 +7412,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D95" t="s">
         <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -7425,19 +7436,19 @@
         <v>36</v>
       </c>
       <c r="J95" t="s">
+        <v>582</v>
+      </c>
+      <c r="K95" t="s">
+        <v>583</v>
+      </c>
+      <c r="L95" t="s">
         <v>584</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>585</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>586</v>
-      </c>
-      <c r="M95" t="s">
-        <v>587</v>
-      </c>
-      <c r="N95" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7445,16 +7456,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D96" t="s">
         <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F96" t="s">
         <v>50</v>
@@ -7469,19 +7480,19 @@
         <v>58</v>
       </c>
       <c r="J96" t="s">
+        <v>588</v>
+      </c>
+      <c r="K96" t="s">
+        <v>589</v>
+      </c>
+      <c r="L96" t="s">
         <v>590</v>
       </c>
-      <c r="K96" t="s">
+      <c r="M96" t="s">
         <v>591</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>592</v>
-      </c>
-      <c r="M96" t="s">
-        <v>593</v>
-      </c>
-      <c r="N96" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -7489,16 +7500,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D97" t="s">
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -7513,19 +7524,19 @@
         <v>58</v>
       </c>
       <c r="J97" t="s">
+        <v>594</v>
+      </c>
+      <c r="K97" t="s">
+        <v>595</v>
+      </c>
+      <c r="L97" t="s">
         <v>596</v>
       </c>
-      <c r="K97" t="s">
+      <c r="M97" t="s">
         <v>597</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>598</v>
-      </c>
-      <c r="M97" t="s">
-        <v>599</v>
-      </c>
-      <c r="N97" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -7533,16 +7544,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D98" t="s">
         <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F98" t="s">
         <v>103</v>
@@ -7557,19 +7568,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s">
+        <v>600</v>
+      </c>
+      <c r="K98" t="s">
+        <v>601</v>
+      </c>
+      <c r="L98" t="s">
         <v>602</v>
       </c>
-      <c r="K98" t="s">
+      <c r="M98" t="s">
         <v>603</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>604</v>
-      </c>
-      <c r="M98" t="s">
-        <v>605</v>
-      </c>
-      <c r="N98" t="s">
-        <v>606</v>
       </c>
     </row>
   </sheetData>
